--- a/data/preprocessed/na_screening/cw_T2_preprocessed.xlsx
+++ b/data/preprocessed/na_screening/cw_T2_preprocessed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\preprocessed\na_screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89005B26-CA23-4A61-8764-C7D01F5506B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C517C4-7573-49B7-9293-A6D1442115AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,6 +596,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
